--- a/IC_RC/Template/CeritficationTemplate.xlsx
+++ b/IC_RC/Template/CeritficationTemplate.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deep2\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="CeritficationTemplate" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>First Name</t>
   </si>
@@ -37,9 +32,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Provience</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -49,63 +41,12 @@
     <t>Email</t>
   </si>
   <si>
-    <t>CurrentBoard</t>
-  </si>
-  <si>
-    <t>OtherBoard</t>
-  </si>
-  <si>
-    <t>CertificateID</t>
-  </si>
-  <si>
-    <t>CertificateNumber</t>
-  </si>
-  <si>
-    <t>IssueBoard</t>
-  </si>
-  <si>
-    <t>BoardCertificateNumber</t>
-  </si>
-  <si>
-    <t>BoardCertificateAcronym</t>
-  </si>
-  <si>
-    <t>CertificateIssueDate</t>
-  </si>
-  <si>
-    <t>Renewal Date</t>
-  </si>
-  <si>
-    <t>CertificateRequestDate</t>
-  </si>
-  <si>
-    <t>CertificateRequestFee</t>
-  </si>
-  <si>
-    <t>PaymentNumber</t>
-  </si>
-  <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>CertificateNotes</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>ADAD</t>
-  </si>
-  <si>
     <t>ICAADC</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Instructions to upload certifications:</t>
   </si>
   <si>
@@ -125,6 +66,30 @@
   </si>
   <si>
     <t>c. save the file .</t>
+  </si>
+  <si>
+    <t>State/Provience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICRC_Certificate </t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Issueing Board Name Acronym</t>
+  </si>
+  <si>
+    <t>Board Certificate Number</t>
+  </si>
+  <si>
+    <t>Board Certificate Acronym</t>
+  </si>
+  <si>
+    <t>Certificate Request Date</t>
+  </si>
+  <si>
+    <t>Certificate Issue Date</t>
   </si>
 </sst>
 </file>
@@ -614,12 +579,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -721,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +723,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,40 +908,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -984,127 +944,132 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
+      <c r="L2" s="2">
+        <v>122</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42625</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45921</v>
+      </c>
+      <c r="P2" s="1">
+        <v>42625</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <v>123444</v>
-      </c>
-      <c r="O2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
         <v>122</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="N3" s="1">
         <v>42625</v>
       </c>
-      <c r="R2" s="1">
+      <c r="O3" s="1">
         <v>45921</v>
       </c>
-      <c r="S2" s="1">
+      <c r="P3" s="1">
         <v>42625</v>
-      </c>
-      <c r="T2">
-        <v>200</v>
-      </c>
-      <c r="U2">
-        <v>123</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1125,37 +1090,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
